--- a/ORARI .xlsx
+++ b/ORARI .xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuele/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pasquale\Pasquale\Università\Terzo anno\Interazione Uomo-Macchina\Caso di studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70116DB7-60CC-4600-AE13-B4BDEAE1B6DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>NOME</t>
   </si>
@@ -114,12 +115,15 @@
   </si>
   <si>
     <t>CASA DI ANTONIO</t>
+  </si>
+  <si>
+    <t>MARTEDI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -161,6 +165,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -428,25 +435,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,21 +473,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>0.72916666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -495,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -515,7 +522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -544,27 +551,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>0.70833333333333337</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -590,7 +597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -616,7 +623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
